--- a/SellyExcel/6.22 테스트 통과/성능 대시보드 시나리오.xlsx
+++ b/SellyExcel/6.22 테스트 통과/성능 대시보드 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.22 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BE9FE-508B-2144-9ED3-47B9BA36499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A9AA9-78FA-E546-AC71-88B2BEC1E7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25360" yWindow="14580" windowWidth="24980" windowHeight="13820" xr2:uid="{FDBD831C-FA46-424A-BD1F-5E1A9BF388B4}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>위험도</t>
   </si>
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -219,6 +216,10 @@
   </si>
   <si>
     <t>https://mpm.imqa.io/mpm/579/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,9 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24D4F18-1599-E34B-BB20-7C1989718D80}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -622,73 +621,73 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -699,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -710,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -721,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -732,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -743,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -754,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -765,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -776,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -787,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -798,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -809,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -820,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -831,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -842,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -853,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -864,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -875,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -886,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -897,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -908,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -919,99 +918,99 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
